--- a/Documents/Hexscape/Release 1/Burndown.xlsx
+++ b/Documents/Hexscape/Release 1/Burndown.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19222"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabe\source\repos\Down2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="17" documentId="D1C380766BE15DE9C6C8C725408D8609AA3E0A38" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{767D8446-6216-4D1C-B7F0-4981995E710F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179016"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +103,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -283,8 +283,8 @@
                 <c:pt idx="4">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,15 +1211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1509,16 +1509,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1607,25 +1607,31 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>84</v>
       </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
